--- a/medicine/Mort/Régicide/Régicide.xlsx
+++ b/medicine/Mort/Régicide/Régicide.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9gicide</t>
+          <t>Régicide</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le régicide désigne en premier lieu l'assassinat d'un monarque, ainsi que l'auteur de cet acte. La victime peut être un roi, comme le suggère l'étymologie du mot, mais aussi un empereur ou tout autre prince régnant. L'exécution d'une sentence de mort portée par un tribunal ou une assemblée à l'encontre d'un souverain déposé, comme Louis XVI en France ou Charles Ier en Angleterre, est également considérée comme un régicide.
 Le terme de régicide n'est pas utilisé pour qualifier l'assassinat d'autres chefs d'État, tels que des présidents de la République. Il ne s'applique pas non plus pour les homicides accidentels (comme la mort d'Henri II lors d'un tournoi), ni pour les morts au combat (comme celle de Richard III).
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R%C3%A9gicide</t>
+          <t>Régicide</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,17 +527,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Angleterre
-Charles Ier
-Au terme de son procès, le roi d'Angleterre Charles Ier est jugé coupable de haute trahison le 27 janvier 1649 et condamné à mort. Son acte d'exécution porte la signature de cinquante-neuf commissaires. Le roi est décapité trois jours plus tard, le 30 janvier, et la monarchie abolie une semaine après. Après la Restauration, en 1660, plusieurs commissaires sont à leur tour exécutés pour régicide, tandis que certains morts avant cette date, notamment Oliver Cromwell, sont l'objet d'une exécution posthume. D'autres régicides finissent leurs jours en prison ou bien en exil.
-France
-Dans la France de l'Ancien Régime, un régicide ou même une tentative de régicide est puni par l'écartèlement. Au XVIIIe siècle, cependant, la peine prévue pour régicide est ramenée à la peine des parricides habituelle : la main droite coupée en signe d'expiation suivie de la décapitation[réf. nécessaire]. Cette peine accessoire, destinée à renforcer l'horreur du crime par celle du châtiment, est abolie avec le régime de Louis-Philippe.
-Henri III
-Henri III de Valois, roi de France, est mortellement poignardé par Jacques Clément le 1er août 1589 au château de Saint-Cloud. Il succombe le lendemain 2 août. Son assassin, moine dominicain ligueur, estime que sa victime est l'ennemi déclaré du catholicisme depuis qu'il a commandité l'assassinat du duc de Guise. Ce régicide marque un tournant dans les guerres de religion qui frappent la France depuis plus de 25 ans : mourant, Henri III désigne le roi Henri III de Navarre futur Henri IV, un prince protestant, pour lui succéder.
-Henri IV
-Henri le Grand, roi de France et de Navarre, successeur d'Henri III, meurt assassiné par François Ravaillac dans une rue de Paris le 14 mai 1610. Ravaillac est écartelé en place de Grève le 27 mai suivant, au terme d'un long supplice. Ce second régicide consécutif contribue au renforcement de la monarchie absolue en France, les décisions et la personne du roi devenant intouchables.
-Louis XVI
-Dans le cas de Louis XVI, « régicide » désigne l'exécution de la peine de mort prononcée par la Convention nationale à l'encontre de l'ancien roi à la suite de son procès, ainsi que les Conventionnels qui ont voté la mort. Il est à noter qu'au moment de son exécution, Louis XVI, ancien roi de France et de Navarre suspendu de ses fonctions de chef d'État à partir du 10 août 1792, est déchu de son titre de roi des Français depuis l'abolition de la monarchie le 21 septembre suivant. Ce terme de régicide est surtout employé au moment de la Restauration par les royalistes. Les « conventionnels régicides » qui, en 1815, pendant les Cent Jours ont signé l'acte additionnel aux constitutions de l'Empire ou accepté l'attribution par Napoléon Ier d'une fonction (c'est-à-dire 84 % d'entre eux) ont fait, en janvier 1816, l'objet d'une loi d'indignité et de bannissement[1]. Toutefois, le 24 juin 1795, le futur Louis XVIII, alors comte de Provence, à l'annonce de la mort de Louis XVII au Temple, envoie de Vérone un manifeste dans lequel il prévoit en cas de retour au pouvoir le rétablissement des anciennes institutions politiques et religieuses, ainsi que la « punition des régicides »[2],[3].
+          <t>Angleterre</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Charles Ier</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au terme de son procès, le roi d'Angleterre Charles Ier est jugé coupable de haute trahison le 27 janvier 1649 et condamné à mort. Son acte d'exécution porte la signature de cinquante-neuf commissaires. Le roi est décapité trois jours plus tard, le 30 janvier, et la monarchie abolie une semaine après. Après la Restauration, en 1660, plusieurs commissaires sont à leur tour exécutés pour régicide, tandis que certains morts avant cette date, notamment Oliver Cromwell, sont l'objet d'une exécution posthume. D'autres régicides finissent leurs jours en prison ou bien en exil.
 </t>
         </is>
       </c>
@@ -536,7 +548,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R%C3%A9gicide</t>
+          <t>Régicide</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,17 +563,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Liste de régicides</t>
+          <t>Régicides notoires</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Antiquité
-Avant Jésus-Christ
-Après Jésus-Christ
-Moyen Âge
-Époque moderne
-Époque contemporaine</t>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans la France de l'Ancien Régime, un régicide ou même une tentative de régicide est puni par l'écartèlement. Au XVIIIe siècle, cependant, la peine prévue pour régicide est ramenée à la peine des parricides habituelle : la main droite coupée en signe d'expiation suivie de la décapitation[réf. nécessaire]. Cette peine accessoire, destinée à renforcer l'horreur du crime par celle du châtiment, est abolie avec le régime de Louis-Philippe.
+</t>
         </is>
       </c>
     </row>
@@ -571,7 +585,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>R%C3%A9gicide</t>
+          <t>Régicide</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -586,10 +600,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Liste de régicides ayant échoué</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
+          <t>Régicides notoires</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Henri III</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Henri III de Valois, roi de France, est mortellement poignardé par Jacques Clément le 1er août 1589 au château de Saint-Cloud. Il succombe le lendemain 2 août. Son assassin, moine dominicain ligueur, estime que sa victime est l'ennemi déclaré du catholicisme depuis qu'il a commandité l'assassinat du duc de Guise. Ce régicide marque un tournant dans les guerres de religion qui frappent la France depuis plus de 25 ans : mourant, Henri III désigne le roi Henri III de Navarre futur Henri IV, un prince protestant, pour lui succéder.
+</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -597,7 +626,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>R%C3%A9gicide</t>
+          <t>Régicide</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -612,12 +641,124 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Régicides notoires</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Henri IV</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Henri le Grand, roi de France et de Navarre, successeur d'Henri III, meurt assassiné par François Ravaillac dans une rue de Paris le 14 mai 1610. Ravaillac est écartelé en place de Grève le 27 mai suivant, au terme d'un long supplice. Ce second régicide consécutif contribue au renforcement de la monarchie absolue en France, les décisions et la personne du roi devenant intouchables.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Régicide</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9gicide</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Régicides notoires</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Louis XVI</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le cas de Louis XVI, « régicide » désigne l'exécution de la peine de mort prononcée par la Convention nationale à l'encontre de l'ancien roi à la suite de son procès, ainsi que les Conventionnels qui ont voté la mort. Il est à noter qu'au moment de son exécution, Louis XVI, ancien roi de France et de Navarre suspendu de ses fonctions de chef d'État à partir du 10 août 1792, est déchu de son titre de roi des Français depuis l'abolition de la monarchie le 21 septembre suivant. Ce terme de régicide est surtout employé au moment de la Restauration par les royalistes. Les « conventionnels régicides » qui, en 1815, pendant les Cent Jours ont signé l'acte additionnel aux constitutions de l'Empire ou accepté l'attribution par Napoléon Ier d'une fonction (c'est-à-dire 84 % d'entre eux) ont fait, en janvier 1816, l'objet d'une loi d'indignité et de bannissement. Toutefois, le 24 juin 1795, le futur Louis XVIII, alors comte de Provence, à l'annonce de la mort de Louis XVII au Temple, envoie de Vérone un manifeste dans lequel il prévoit en cas de retour au pouvoir le rétablissement des anciennes institutions politiques et religieuses, ainsi que la « punition des régicides »,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Régicide</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9gicide</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Liste de régicides ayant échoué</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Régicide</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9gicide</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Pensée sur le régicide</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’idée de régicide a été au centre d’un nombre abondant de réflexions sociologiques, politiques, philosophiques : on peut ainsi songer à Kant (le corps infigurable du roi)[4] ou Freud (la mise à mort de l’origine « patriarcale »)[5]. En France, après la mort de Louis XVI, des philosophes contre-révolutionnaires comme Joseph de Maistre (la catastrophe), Louis de Bonald (la folle accusation de régicide contre le jésuites) ou Pierre-Simon Ballanche (dialectique de la déchéance et de la réhabilitation) ont réfléchi à la signification du régicide[6].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’idée de régicide a été au centre d’un nombre abondant de réflexions sociologiques, politiques, philosophiques : on peut ainsi songer à Kant (le corps infigurable du roi) ou Freud (la mise à mort de l’origine « patriarcale »). En France, après la mort de Louis XVI, des philosophes contre-révolutionnaires comme Joseph de Maistre (la catastrophe), Louis de Bonald (la folle accusation de régicide contre le jésuites) ou Pierre-Simon Ballanche (dialectique de la déchéance et de la réhabilitation) ont réfléchi à la signification du régicide.
 </t>
         </is>
       </c>
